--- a/Poorly_Organized_Data_1.xlsx
+++ b/Poorly_Organized_Data_1.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanbaldwin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89DCEDB2710A58D6/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41B8C2E-1A14-9940-AAFE-38A64E477CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE11084-5CD9-4E43-86B3-2920C46DA51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -938,13 +925,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -955,7 +940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -966,7 +951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -977,7 +962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -988,7 +973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -999,7 +984,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1010,7 +995,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1032,7 +1017,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1043,7 +1028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1054,7 +1039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1065,7 +1050,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1087,7 +1072,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1098,7 +1083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1120,7 +1105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +1116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1153,7 +1138,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1149,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1175,7 +1160,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1186,7 +1171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1208,7 +1193,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1204,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1230,7 +1215,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1241,7 +1226,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1252,7 +1237,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1263,7 +1248,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1274,7 +1259,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1285,7 +1270,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1296,7 +1281,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1307,7 +1292,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1303,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1314,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +1336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1347,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +1369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1406,7 +1391,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1417,7 +1402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1428,7 +1413,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1439,7 +1424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1450,7 +1435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1461,7 +1446,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -1472,7 +1457,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -1483,7 +1468,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -1494,7 +1479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -1505,7 +1490,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -1516,7 +1501,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -1527,7 +1512,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -1538,7 +1523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -1549,7 +1534,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -1560,7 +1545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -1571,7 +1556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -1582,7 +1567,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -1593,7 +1578,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -1604,7 +1589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -1615,7 +1600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>44</v>
       </c>
@@ -1626,7 +1611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -1637,7 +1622,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -1648,7 +1633,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -1659,7 +1644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -1670,7 +1655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -1681,7 +1666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>44</v>
       </c>
@@ -1692,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>44</v>
       </c>
@@ -1703,7 +1688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>44</v>
       </c>
@@ -1714,7 +1699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -1725,7 +1710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -1736,7 +1721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>44</v>
       </c>
@@ -1747,7 +1732,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>44</v>
       </c>
@@ -1758,7 +1743,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -1769,7 +1754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -1780,7 +1765,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -1791,7 +1776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -1802,7 +1787,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -1813,7 +1798,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1824,7 +1809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1835,7 +1820,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -1846,7 +1831,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -1857,7 +1842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -1868,7 +1853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -1879,7 +1864,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>80</v>
       </c>
@@ -1890,7 +1875,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>80</v>
       </c>
@@ -1901,7 +1886,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>80</v>
       </c>
@@ -1912,7 +1897,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -1923,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>80</v>
       </c>
@@ -1934,7 +1919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>80</v>
       </c>
@@ -1945,7 +1930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>80</v>
       </c>
@@ -1956,7 +1941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>80</v>
       </c>
@@ -1967,7 +1952,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>80</v>
       </c>
@@ -1978,7 +1963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>80</v>
       </c>
@@ -1989,7 +1974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>80</v>
       </c>
@@ -2000,7 +1985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>80</v>
       </c>
@@ -2011,7 +1996,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>80</v>
       </c>
@@ -2022,7 +2007,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>80</v>
       </c>
@@ -2033,7 +2018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>80</v>
       </c>
@@ -2044,7 +2029,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>80</v>
       </c>
@@ -2055,7 +2040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>80</v>
       </c>
@@ -2066,7 +2051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>80</v>
       </c>
@@ -2077,7 +2062,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -2088,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>80</v>
       </c>
@@ -2099,7 +2084,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>80</v>
       </c>
@@ -2110,7 +2095,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>80</v>
       </c>
@@ -2121,7 +2106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>80</v>
       </c>
@@ -2132,7 +2117,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>80</v>
       </c>
@@ -2143,7 +2128,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>80</v>
       </c>
@@ -2154,7 +2139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -2165,7 +2150,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -2176,7 +2161,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -2187,7 +2172,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -2198,7 +2183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2209,7 +2194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -2220,7 +2205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -2231,7 +2216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -2242,7 +2227,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>115</v>
       </c>
@@ -2253,7 +2238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>115</v>
       </c>
@@ -2264,7 +2249,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -2275,7 +2260,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>115</v>
       </c>
@@ -2286,7 +2271,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>115</v>
       </c>
@@ -2297,7 +2282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>115</v>
       </c>
@@ -2308,7 +2293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>115</v>
       </c>
@@ -2319,7 +2304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>115</v>
       </c>
@@ -2330,7 +2315,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>115</v>
       </c>
@@ -2341,7 +2326,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>115</v>
       </c>
@@ -2352,7 +2337,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>115</v>
       </c>
@@ -2363,7 +2348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>115</v>
       </c>
@@ -2374,7 +2359,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>115</v>
       </c>
@@ -2385,7 +2370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>115</v>
       </c>
@@ -2396,7 +2381,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>115</v>
       </c>
@@ -2407,7 +2392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>115</v>
       </c>
@@ -2418,7 +2403,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>115</v>
       </c>
@@ -2429,7 +2414,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>115</v>
       </c>
@@ -2440,7 +2425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>115</v>
       </c>
@@ -2451,7 +2436,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>115</v>
       </c>
@@ -2462,7 +2447,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>115</v>
       </c>
@@ -2473,7 +2458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>115</v>
       </c>
@@ -2484,7 +2469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>115</v>
       </c>
@@ -2495,7 +2480,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>115</v>
       </c>
@@ -2506,7 +2491,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>115</v>
       </c>
@@ -2517,7 +2502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>149</v>
       </c>
@@ -2528,7 +2513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -2539,7 +2524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -2550,7 +2535,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -2561,7 +2546,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>149</v>
       </c>
@@ -2572,7 +2557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -2583,7 +2568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -2594,7 +2579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -2605,7 +2590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -2616,7 +2601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>149</v>
       </c>
@@ -2627,7 +2612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>149</v>
       </c>
@@ -2638,7 +2623,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>149</v>
       </c>
@@ -2649,7 +2634,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>149</v>
       </c>
@@ -2660,7 +2645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>149</v>
       </c>
@@ -2671,7 +2656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>149</v>
       </c>
@@ -2682,7 +2667,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>149</v>
       </c>
@@ -2693,7 +2678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>149</v>
       </c>
@@ -2704,7 +2689,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>149</v>
       </c>
@@ -2715,7 +2700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>149</v>
       </c>
@@ -2726,7 +2711,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>149</v>
       </c>
@@ -2737,7 +2722,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>149</v>
       </c>
@@ -2748,7 +2733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>149</v>
       </c>
@@ -2759,7 +2744,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>149</v>
       </c>
@@ -2770,7 +2755,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>149</v>
       </c>
@@ -2781,7 +2766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>149</v>
       </c>
@@ -2792,7 +2777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>149</v>
       </c>
@@ -2803,7 +2788,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>149</v>
       </c>
@@ -2814,7 +2799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>149</v>
       </c>
@@ -2825,7 +2810,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>149</v>
       </c>
@@ -2836,7 +2821,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>149</v>
       </c>
@@ -2847,7 +2832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>149</v>
       </c>
@@ -2858,7 +2843,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>149</v>
       </c>
@@ -2869,7 +2854,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>149</v>
       </c>
@@ -2880,7 +2865,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>149</v>
       </c>
@@ -2891,7 +2876,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>149</v>
       </c>
@@ -2902,7 +2887,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>149</v>
       </c>
@@ -2913,7 +2898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>149</v>
       </c>
@@ -2924,7 +2909,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>149</v>
       </c>
